--- a/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
+++ b/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="General Lit. on (Re-)Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Title</t>
   </si>
@@ -127,13 +127,40 @@
   </si>
   <si>
     <t>IRVE--&gt;IRVE2--&gt;IRVE3--&gt;HIAD THOR + IRVE4</t>
+  </si>
+  <si>
+    <t>GL1</t>
+  </si>
+  <si>
+    <t>General Literature on Re-Entry/Section III.4.1.7 Returning from Space.pdf</t>
+  </si>
+  <si>
+    <t>General principles re-entry</t>
+  </si>
+  <si>
+    <t>FAA</t>
+  </si>
+  <si>
+    <t>GL2</t>
+  </si>
+  <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>General Literature on Re-Entry/Coming_Home_NASA.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (scan)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,11 +191,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -365,13 +387,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -398,6 +420,46 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -478,14 +540,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -508,20 +575,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -544,20 +616,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -580,20 +657,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -616,20 +698,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -652,20 +739,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -688,20 +780,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -724,7 +821,422 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -734,16 +1246,16 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="243840" cy="213360"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="2058" name="Check Box 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1056,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,14 +2075,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="62.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="20">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="20">
+        <v>339</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2054" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2055" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2056" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2057" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2058" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 

--- a/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
+++ b/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t xml:space="preserve">        (scan)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplified view of mostly ballistic entry (non-lifting) </t>
+  </si>
+  <si>
+    <t>Contains a lot of reference missions + info on materials (structure + TPS) - Ch.2 + Ch.6</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +472,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,7 +937,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>373380</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1242,14 +1254,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2058" name="Check Box 10" hidden="1">
@@ -1272,7 +1289,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1569,7 +1586,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2076,21 +2093,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="32.77734375" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="62.5546875" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" customWidth="1"/>
+    <col min="7" max="7" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
@@ -2109,8 +2127,11 @@
       <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
@@ -2127,8 +2148,11 @@
       <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>41</v>
       </c>
@@ -2147,62 +2171,72 @@
       <c r="F4" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
       <c r="D5" s="21"/>
       <c r="E5" s="11"/>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
       <c r="D6" s="21"/>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
       <c r="D7" s="21"/>
       <c r="E7" s="11"/>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
       <c r="D8" s="21"/>
       <c r="E8" s="11"/>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
       <c r="D9" s="21"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
       <c r="D10" s="21"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="12"/>
       <c r="C11" s="10"/>
       <c r="D11" s="21"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,7 +2282,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>373380</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2424,7 +2458,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>373380</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
+++ b/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Reference Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Title</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>Contains a lot of reference missions + info on materials (structure + TPS) - Ch.2 + Ch.6</t>
+  </si>
+  <si>
+    <t>Overall system integration; TPS and structures interaction; Thoroids; control mechanisms (CG offset, cold gas RCS)</t>
+  </si>
+  <si>
+    <t>Material selection TPS and structures (and changes from previous designs); heavier design</t>
+  </si>
+  <si>
+    <t>Some info on inflation system; on TPS</t>
+  </si>
+  <si>
+    <t>RC10</t>
+  </si>
+  <si>
+    <t>Att Con Perf of IRVE3</t>
+  </si>
+  <si>
+    <t>Primarily details ACS system perf</t>
+  </si>
+  <si>
+    <t>Reference Cases/Attitude_control_performance_of_IRVE3.pdf</t>
+  </si>
+  <si>
+    <t>RC11</t>
+  </si>
+  <si>
+    <t>Impact Flex IRVE2</t>
+  </si>
+  <si>
+    <t>Not very relevant; details test</t>
+  </si>
+  <si>
+    <t>Build-up thoroids</t>
   </si>
 </sst>
 </file>
@@ -224,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -349,11 +382,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,6 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +485,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,15 +497,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,15 +521,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,11 +557,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,6 +944,186 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1583,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,15 +1844,16 @@
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" customWidth="1"/>
+    <col min="6" max="6" width="95.6640625" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
@@ -1619,12 +1869,15 @@
       <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
@@ -1638,12 +1891,13 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
@@ -1657,12 +1911,15 @@
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
@@ -1676,12 +1933,15 @@
       <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>28</v>
       </c>
@@ -1695,12 +1955,13 @@
       <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
@@ -1714,12 +1975,15 @@
       <c r="E8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
@@ -1733,12 +1997,15 @@
       <c r="E9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
@@ -1752,12 +2019,13 @@
       <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>32</v>
       </c>
@@ -1771,12 +2039,13 @@
       <c r="E11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
@@ -1790,94 +2059,138 @@
       <c r="E12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="C14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="7"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="21">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="21">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,6 +2398,116 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId13" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId14" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId15" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId16" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId17" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>373380</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -2095,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
+++ b/02_LS_LITERATURE_STUDY/01_STRUCTURES/Björn (Structures)/Literature_Overview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Title</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Build-up thoroids</t>
+  </si>
+  <si>
+    <t>Good overview of disciplines (primarily Inflatable Structures department)</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,14 +952,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -979,20 +987,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1015,20 +1028,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1051,20 +1069,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1087,20 +1110,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="213360"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>373380</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1123,7 +1151,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1835,7 +1863,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2059,7 +2087,9 @@
       <c r="E12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
